--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
@@ -29,7 +29,7 @@
     <author>Petrenko, Viktor (C)</author>
   </authors>
   <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -144,21 +144,12 @@
     <t>ALTFUEL</t>
   </si>
   <si>
-    <t>MDX ADVANCE</t>
-  </si>
-  <si>
     <t>WAG</t>
   </si>
   <si>
-    <t>SUV</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>2WD</t>
-  </si>
-  <si>
     <t>000R</t>
   </si>
   <si>
@@ -174,15 +165,9 @@
     <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>4.5L V10</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -210,12 +195,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>UT_SS</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -225,9 +204,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>8L V12</t>
   </si>
   <si>
@@ -246,25 +222,7 @@
     <t>X</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>invalidVIN</t>
-  </si>
-  <si>
-    <t>SecondValid</t>
-  </si>
-  <si>
-    <t>ThirdValid</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>SYMBOL_2000</t>
-  </si>
-  <si>
-    <t>HHHKN3DD&amp;E</t>
   </si>
   <si>
     <t>PASSAT</t>
@@ -316,7 +274,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +284,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -348,15 +300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -640,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A5" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -756,614 +704,150 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>214</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="5">
-        <v>53080</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>214</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>20010101</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3">
-        <v>8</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>214</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="3">
-        <v>2</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="3">
-        <v>2</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>214</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>20150101</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3">
-        <v>53080</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3">
-        <v>8</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>214</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>20190101</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
@@ -29,7 +29,7 @@
     <author>Petrenko, Viktor (C)</author>
   </authors>
   <commentList>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>VIN</t>
   </si>
@@ -195,15 +195,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>8L V12</t>
   </si>
   <si>
@@ -213,12 +204,6 @@
     <t>VOLKSWAGEN</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -232,6 +217,9 @@
   </si>
   <si>
     <t>SEDAN</t>
+  </si>
+  <si>
+    <t>7PRTL15H&amp;V</t>
   </si>
 </sst>
 </file>
@@ -588,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,15 +598,14 @@
     <col min="23" max="23" width="22.33203125" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="28" max="29" width="13.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" customWidth="1"/>
+    <col min="33" max="33" width="19.88671875" customWidth="1"/>
+    <col min="34" max="34" width="21.88671875" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,66 +682,60 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3">
         <v>88888</v>
@@ -763,19 +744,19 @@
         <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O2" s="3">
         <v>12</v>
@@ -787,7 +768,7 @@
         <v>214</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3">
         <v>4</v>
@@ -810,43 +791,37 @@
       <c r="Y2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>51</v>
+      <c r="Z2" s="3">
+        <v>66</v>
       </c>
       <c r="AA2" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="3">
         <v>55</v>
       </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="AC2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>20000101</v>
+      <c r="AI2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" s="3" t="s">
         <v>44</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/PartialMatch_UT_SS.xlsx
@@ -219,7 +219,7 @@
     <t>SEDAN</t>
   </si>
   <si>
-    <t>7PRTL15H&amp;V</t>
+    <t>7PRTLCAH&amp;V</t>
   </si>
 </sst>
 </file>
@@ -578,13 +578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
